--- a/result_files/final_ood_casas.xlsx
+++ b/result_files/final_ood_casas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4965871691703796</v>
+        <v>0.5004069010416667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006825661659240723</v>
+        <v>0.001923335403228528</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7680098652839661</v>
+        <v>0.9985788728908401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1392850526393727</v>
+        <v>0.001397458621937211</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.782154631614685</v>
+        <v>0.9536475147425965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04232812892036745</v>
+        <v>0.00686106728827857</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7060444116592407</v>
+        <v>0.9933615272038567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119835785011813</v>
+        <v>0.004286333850049143</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8953124761581421</v>
+        <v>0.9783610026041666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02778017493619667</v>
+        <v>0.005017473569804378</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9010690808296203</v>
+        <v>0.9991235149793388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04489960378837834</v>
+        <v>0.001106006210531396</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5525082230567933</v>
+        <v>0.8784055935778238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05585504138590723</v>
+        <v>0.04480019766353623</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9309621691703797</v>
+        <v>0.9957302965736915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05136255388408779</v>
+        <v>0.005270499730980624</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9233141303062439</v>
+        <v>0.9867570861311983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03320143014524354</v>
+        <v>0.004315287339690551</v>
       </c>
     </row>
     <row r="11">
@@ -549,230 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5225329041481018</v>
+        <v>0.6098815749827824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01140590219950456</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.4038926524777252</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0541943277279549</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7513985658799107</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1653469986355771</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7808253502520608</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.04249130391582516</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.6935019177573688</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1295943372390366</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.8948479310292814</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.02811452200975032</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9002750536130222</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04519054474493579</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.4794554695150628</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1035783530436264</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9296867932145789</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.052589137913941</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9232541603909981</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.03320371636364689</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4633326887508805</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0242152832460079</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5004718474073753</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.003803346132688842</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.8498151699922092</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1500610527910309</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8794450839140409</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02949058524935592</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.795468317174515</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1648746561059093</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9665202048346607</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.01973715835830648</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.9703931137465375</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0252654316639312</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.6432569847212604</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.09029948913893696</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.9863806050900277</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.01434377178657925</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.9822067472082756</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01735241245652931</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.497912090438885</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.04113016954811693</v>
+        <v>0.02270833183751137</v>
       </c>
     </row>
   </sheetData>
